--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H2">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.885022870447003</v>
+        <v>0.1177623333333333</v>
       </c>
       <c r="N2">
-        <v>0.885022870447003</v>
+        <v>0.353287</v>
       </c>
       <c r="O2">
-        <v>0.5023482358730859</v>
+        <v>0.05622336632327191</v>
       </c>
       <c r="P2">
-        <v>0.5023482358730859</v>
+        <v>0.05622336632327191</v>
       </c>
       <c r="Q2">
-        <v>1.253195542546292</v>
+        <v>0.2959048300743333</v>
       </c>
       <c r="R2">
-        <v>1.253195542546292</v>
+        <v>2.663143470669</v>
       </c>
       <c r="S2">
-        <v>0.006401612722559558</v>
+        <v>0.001231700086957373</v>
       </c>
       <c r="T2">
-        <v>0.006401612722559558</v>
+        <v>0.001231700086957373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H3">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.876748759762517</v>
+        <v>0.9102196666666668</v>
       </c>
       <c r="N3">
-        <v>0.876748759762517</v>
+        <v>2.730659</v>
       </c>
       <c r="O3">
-        <v>0.4976517641269141</v>
+        <v>0.4345669137583306</v>
       </c>
       <c r="P3">
-        <v>0.4976517641269141</v>
+        <v>0.4345669137583306</v>
       </c>
       <c r="Q3">
-        <v>1.241479372292867</v>
+        <v>2.287135352803667</v>
       </c>
       <c r="R3">
-        <v>1.241479372292867</v>
+        <v>20.584218175233</v>
       </c>
       <c r="S3">
-        <v>0.006341763814701484</v>
+        <v>0.009520171780311568</v>
       </c>
       <c r="T3">
-        <v>0.006341763814701484</v>
+        <v>0.00952017178031157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>92.59680555783819</v>
+        <v>2.512729</v>
       </c>
       <c r="H4">
-        <v>92.59680555783819</v>
+        <v>7.538187</v>
       </c>
       <c r="I4">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J4">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.885022870447003</v>
+        <v>0.1653493333333333</v>
       </c>
       <c r="N4">
-        <v>0.885022870447003</v>
+        <v>0.496048</v>
       </c>
       <c r="O4">
-        <v>0.5023482358730859</v>
+        <v>0.07894286633226351</v>
       </c>
       <c r="P4">
-        <v>0.5023482358730859</v>
+        <v>0.07894286633226351</v>
       </c>
       <c r="Q4">
-        <v>81.95029064902096</v>
+        <v>0.4154780649973333</v>
       </c>
       <c r="R4">
-        <v>81.95029064902096</v>
+        <v>3.739302584976</v>
       </c>
       <c r="S4">
-        <v>0.4186210415098466</v>
+        <v>0.001729422154608097</v>
       </c>
       <c r="T4">
-        <v>0.4186210415098466</v>
+        <v>0.001729422154608097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>92.59680555783819</v>
+        <v>2.512729</v>
       </c>
       <c r="H5">
-        <v>92.59680555783819</v>
+        <v>7.538187</v>
       </c>
       <c r="I5">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J5">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.876748759762517</v>
+        <v>0.9012129999999999</v>
       </c>
       <c r="N5">
-        <v>0.876748759762517</v>
+        <v>2.703639</v>
       </c>
       <c r="O5">
-        <v>0.4976517641269141</v>
+        <v>0.430266853586134</v>
       </c>
       <c r="P5">
-        <v>0.4976517641269141</v>
+        <v>0.430266853586134</v>
       </c>
       <c r="Q5">
-        <v>81.18413443080557</v>
+        <v>2.264504040277</v>
       </c>
       <c r="R5">
-        <v>81.18413443080557</v>
+        <v>20.380536362493</v>
       </c>
       <c r="S5">
-        <v>0.4147073383186988</v>
+        <v>0.009425969230119829</v>
       </c>
       <c r="T5">
-        <v>0.4147073383186988</v>
+        <v>0.00942596923011983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.30794607477179</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H6">
-        <v>1.30794607477179</v>
+        <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J6">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.885022870447003</v>
+        <v>0.1177623333333333</v>
       </c>
       <c r="N6">
-        <v>0.885022870447003</v>
+        <v>0.353287</v>
       </c>
       <c r="O6">
-        <v>0.5023482358730859</v>
+        <v>0.05622336632327191</v>
       </c>
       <c r="P6">
-        <v>0.5023482358730859</v>
+        <v>0.05622336632327191</v>
       </c>
       <c r="Q6">
-        <v>1.15756218948442</v>
+        <v>10.93941356460089</v>
       </c>
       <c r="R6">
-        <v>1.15756218948442</v>
+        <v>98.45472208140801</v>
       </c>
       <c r="S6">
-        <v>0.005913095433056593</v>
+        <v>0.04553516965369169</v>
       </c>
       <c r="T6">
-        <v>0.005913095433056593</v>
+        <v>0.0455351696536917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.30794607477179</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H7">
-        <v>1.30794607477179</v>
+        <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J7">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.876748759762517</v>
+        <v>0.9102196666666668</v>
       </c>
       <c r="N7">
-        <v>0.876748759762517</v>
+        <v>2.730659</v>
       </c>
       <c r="O7">
-        <v>0.4976517641269141</v>
+        <v>0.4345669137583306</v>
       </c>
       <c r="P7">
-        <v>0.4976517641269141</v>
+        <v>0.4345669137583306</v>
       </c>
       <c r="Q7">
-        <v>1.146740098892419</v>
+        <v>84.55394086082846</v>
       </c>
       <c r="R7">
-        <v>1.146740098892419</v>
+        <v>760.985467747456</v>
       </c>
       <c r="S7">
-        <v>0.00585781369092904</v>
+        <v>0.3519547020733288</v>
       </c>
       <c r="T7">
-        <v>0.00585781369092904</v>
+        <v>0.3519547020733289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.7960719698165</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H8">
-        <v>15.7960719698165</v>
+        <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.1421573345102079</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J8">
-        <v>0.1421573345102079</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.885022870447003</v>
+        <v>0.1653493333333333</v>
       </c>
       <c r="N8">
-        <v>0.885022870447003</v>
+        <v>0.496048</v>
       </c>
       <c r="O8">
-        <v>0.5023482358730859</v>
+        <v>0.07894286633226351</v>
       </c>
       <c r="P8">
-        <v>0.5023482358730859</v>
+        <v>0.07894286633226351</v>
       </c>
       <c r="Q8">
-        <v>13.97988495651444</v>
+        <v>15.35996008880356</v>
       </c>
       <c r="R8">
-        <v>13.97988495651444</v>
+        <v>138.239640799232</v>
       </c>
       <c r="S8">
-        <v>0.0714124862076231</v>
+        <v>0.0639356382668325</v>
       </c>
       <c r="T8">
-        <v>0.0714124862076231</v>
+        <v>0.06393563826683252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.7960719698165</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H9">
-        <v>15.7960719698165</v>
+        <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.1421573345102079</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J9">
-        <v>0.1421573345102079</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.876748759762517</v>
+        <v>0.9012129999999999</v>
       </c>
       <c r="N9">
-        <v>0.876748759762517</v>
+        <v>2.703639</v>
       </c>
       <c r="O9">
-        <v>0.4976517641269141</v>
+        <v>0.430266853586134</v>
       </c>
       <c r="P9">
-        <v>0.4976517641269141</v>
+        <v>0.430266853586134</v>
       </c>
       <c r="Q9">
-        <v>13.84918650865608</v>
+        <v>83.71727561553067</v>
       </c>
       <c r="R9">
-        <v>13.84918650865608</v>
+        <v>753.455480539776</v>
       </c>
       <c r="S9">
-        <v>0.07074484830258482</v>
+        <v>0.3484720936443666</v>
       </c>
       <c r="T9">
-        <v>0.07074484830258482</v>
+        <v>0.3484720936443667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.610639333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.831918</v>
+      </c>
+      <c r="I10">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="J10">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1177623333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.353287</v>
+      </c>
+      <c r="O10">
+        <v>0.05622336632327191</v>
+      </c>
+      <c r="P10">
+        <v>0.05622336632327191</v>
+      </c>
+      <c r="Q10">
+        <v>0.1896726460517778</v>
+      </c>
+      <c r="R10">
+        <v>1.707053814466</v>
+      </c>
+      <c r="S10">
+        <v>0.0007895099737869194</v>
+      </c>
+      <c r="T10">
+        <v>0.0007895099737869195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.610639333333333</v>
+      </c>
+      <c r="H11">
+        <v>4.831918</v>
+      </c>
+      <c r="I11">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="J11">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9102196666666668</v>
+      </c>
+      <c r="N11">
+        <v>2.730659</v>
+      </c>
+      <c r="O11">
+        <v>0.4345669137583306</v>
+      </c>
+      <c r="P11">
+        <v>0.4345669137583306</v>
+      </c>
+      <c r="Q11">
+        <v>1.466035597106889</v>
+      </c>
+      <c r="R11">
+        <v>13.194320373962</v>
+      </c>
+      <c r="S11">
+        <v>0.006102354503593439</v>
+      </c>
+      <c r="T11">
+        <v>0.00610235450359344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.610639333333333</v>
+      </c>
+      <c r="H12">
+        <v>4.831918</v>
+      </c>
+      <c r="I12">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="J12">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1653493333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.496048</v>
+      </c>
+      <c r="O12">
+        <v>0.07894286633226351</v>
+      </c>
+      <c r="P12">
+        <v>0.07894286633226351</v>
+      </c>
+      <c r="Q12">
+        <v>0.2663181400071111</v>
+      </c>
+      <c r="R12">
+        <v>2.396863260064</v>
+      </c>
+      <c r="S12">
+        <v>0.001108545866326963</v>
+      </c>
+      <c r="T12">
+        <v>0.001108545866326963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.610639333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.831918</v>
+      </c>
+      <c r="I13">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="J13">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9012129999999999</v>
+      </c>
+      <c r="N13">
+        <v>2.703639</v>
+      </c>
+      <c r="O13">
+        <v>0.430266853586134</v>
+      </c>
+      <c r="P13">
+        <v>0.430266853586134</v>
+      </c>
+      <c r="Q13">
+        <v>1.451529105511333</v>
+      </c>
+      <c r="R13">
+        <v>13.063761949602</v>
+      </c>
+      <c r="S13">
+        <v>0.006041971417061178</v>
+      </c>
+      <c r="T13">
+        <v>0.006041971417061179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H14">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I14">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J14">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1177623333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.353287</v>
+      </c>
+      <c r="O14">
+        <v>0.05622336632327191</v>
+      </c>
+      <c r="P14">
+        <v>0.05622336632327191</v>
+      </c>
+      <c r="Q14">
+        <v>2.082165315161556</v>
+      </c>
+      <c r="R14">
+        <v>18.739487836454</v>
+      </c>
+      <c r="S14">
+        <v>0.008666986608835917</v>
+      </c>
+      <c r="T14">
+        <v>0.008666986608835917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H15">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I15">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J15">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9102196666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.730659</v>
+      </c>
+      <c r="O15">
+        <v>0.4345669137583306</v>
+      </c>
+      <c r="P15">
+        <v>0.4345669137583306</v>
+      </c>
+      <c r="Q15">
+        <v>16.09366735071978</v>
+      </c>
+      <c r="R15">
+        <v>144.843006156478</v>
+      </c>
+      <c r="S15">
+        <v>0.06698968540109677</v>
+      </c>
+      <c r="T15">
+        <v>0.06698968540109677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H16">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I16">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J16">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1653493333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.496048</v>
+      </c>
+      <c r="O16">
+        <v>0.07894286633226351</v>
+      </c>
+      <c r="P16">
+        <v>0.07894286633226351</v>
+      </c>
+      <c r="Q16">
+        <v>2.923554900846223</v>
+      </c>
+      <c r="R16">
+        <v>26.311994107616</v>
+      </c>
+      <c r="S16">
+        <v>0.01216926004449594</v>
+      </c>
+      <c r="T16">
+        <v>0.01216926004449594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H17">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I17">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J17">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9012129999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.703639</v>
+      </c>
+      <c r="O17">
+        <v>0.430266853586134</v>
+      </c>
+      <c r="P17">
+        <v>0.430266853586134</v>
+      </c>
+      <c r="Q17">
+        <v>15.93441975084867</v>
+      </c>
+      <c r="R17">
+        <v>143.409777757638</v>
+      </c>
+      <c r="S17">
+        <v>0.06632681929458635</v>
+      </c>
+      <c r="T17">
+        <v>0.06632681929458635</v>
       </c>
     </row>
   </sheetData>
